--- a/스케줄.xlsx
+++ b/스케줄.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\python-workspace\project\Brazilian_region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337B817-C01A-46DE-90FE-8DACBDD5CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B57308-B656-4435-BD3E-7539D5EC8ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CAC23EC8-D424-486C-A35F-FA82082F0319}"/>
   </bookViews>
   <sheets>
     <sheet name="스케줄" sheetId="3" r:id="rId1"/>
+    <sheet name="20211227" sheetId="4" r:id="rId2"/>
+    <sheet name="ppt" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>워드 클라우드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,29 +107,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>알아서 하시고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터셋 합치는거
 지도에 시각화공부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>발표날</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppt제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 정보 총합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘
-시각화 처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +171,315 @@
   </si>
   <si>
     <t>주말(개인 할일 분배)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화어떤걸 뽑을 것인가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라스크, 머신러닝 병합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 입력값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건크기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건무게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x,y(최대값 최소값 브라질내부일것)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 소요시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 시 분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 서버..?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링할거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리구하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리-배달시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건무게-배달시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건크기-배달시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 있는 시각화</t>
+  </si>
+  <si>
+    <t>도착장소-배달시간</t>
+  </si>
+  <si>
+    <t>도착장소-횟수</t>
+  </si>
+  <si>
+    <t>발송장소-횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려사항- 주말포함인가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일당 배송시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리스트 데이터설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라질 배송이슈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>brazil fedex time</t>
+  </si>
+  <si>
+    <t>말하고 싶은 특이사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워드클라우드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜리버리단어 다수 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이커머스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송늘어나는 통계등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치 결측치처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 정보 총합
+시각화 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘
+시각화
+플라스크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터5대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 시간구하는크롤링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각화(지도)
+캐글 시각화 자료 공부해서 데이터셋에 적용할 방법 모색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터병합
+,시각화(지도)
+zip_code내용 평균화작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDA,시각화
+주제에 맞게 필요한 코드 학습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치,결측치 처리
+좌표정보로 실제 지형에 맞는 거리 계산 벙법 배송시작부터 끝 컬럼으로 배송시간 계산
+머신러닝 모형 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석벙법론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 환경(도구 및 버전)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 데이터 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDA및 시각화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파생변수 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 기법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모형 최적화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모형평가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모형별 평가표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vscode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 임포트 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카글 데이터 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 데이터 참조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB당으로 구성되어있던 데이터 하나의 csv로 병합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역정보 위치 평균화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측지 이상치 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB특성의 하나의 주문에 복수의 셀러의 경우 배제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -434,13 +728,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +894,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +980,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,55 +1343,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F149139-9EC2-4489-AF24-61EAF3E68C63}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" customWidth="1"/>
     <col min="6" max="6" width="44.296875" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="5">
         <v>44553</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="35">
         <v>44554</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="6">
         <v>44555</v>
       </c>
@@ -934,33 +1416,39 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="35"/>
+    <row r="4" spans="2:13" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="14" t="s">
-        <v>21</v>
+      <c r="G4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
@@ -969,20 +1457,22 @@
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>30</v>
+      <c r="E5" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="60" t="s">
+        <v>83</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -995,48 +1485,46 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="2:13" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
@@ -1049,49 +1537,53 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="59" t="s">
+        <v>80</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="18"/>
+      <c r="B10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="29"/>
+      <c r="E10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="39"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1100,8 +1592,10 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
+    <row r="13" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="19" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D2:M2"/>
@@ -1117,8 +1611,429 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4278E48-DAA5-4820-A2D7-2E702F8B4A91}">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="30"/>
+      <c r="C4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="30"/>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="30"/>
+      <c r="C6" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="30"/>
+      <c r="C7" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="30"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="31"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="55"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="55"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="55"/>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="55"/>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C10:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C15A79-EA16-486F-B200-06209A170A8E}">
+  <dimension ref="B4:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="20"/>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C14" s="20"/>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="19" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>